--- a/tables/1983/1983_Table3.xlsx
+++ b/tables/1983/1983_Table3.xlsx
@@ -175,13 +175,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -217,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -228,17 +234,20 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -564,15 +573,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -593,7 +602,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -606,13 +615,13 @@
       <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -621,25 +630,25 @@
       <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="4"/>
       <c r="K3" s="1"/>
     </row>
@@ -647,31 +656,31 @@
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>22.2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>31.1</v>
       </c>
-      <c r="D4" s="8">
-        <v>26.4</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="D4" s="9">
+        <v>26.7</v>
+      </c>
+      <c r="E4" s="10">
         <v>21</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="9">
         <v>1.9</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <v>1.3</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="9">
         <v>2.9</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="10">
         <v>1</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="10">
         <v>14</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -682,31 +691,31 @@
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>18.2</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>34.4</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>26.3</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="10">
         <v>23</v>
       </c>
-      <c r="F5" s="9">
-        <v>2</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="F5" s="10">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9">
         <v>1.3</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="9">
         <v>2.8</v>
       </c>
-      <c r="I5" s="9">
-        <v>2</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="I5" s="10">
+        <v>2</v>
+      </c>
+      <c r="J5" s="10">
         <v>15</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -717,31 +726,31 @@
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>23.3</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>27.5</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>25.5</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="10">
         <v>19</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="9">
         <v>2.5</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <v>1.8</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="9">
         <v>2.8</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="9">
         <v>1.5</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="10">
         <v>11</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -752,31 +761,31 @@
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>17.3</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>25.5</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>21.4</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="10">
         <v>26</v>
       </c>
-      <c r="F7" s="9">
-        <v>2</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="F7" s="10">
+        <v>2</v>
+      </c>
+      <c r="G7" s="9">
         <v>1.1</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="9">
         <v>2.5</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="9">
         <v>1.5</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="10">
         <v>14</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -787,31 +796,31 @@
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>16.4</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="10">
         <v>24</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <v>20.2</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="10">
         <v>27</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="9">
         <v>1.9</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="9">
         <v>2.5</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="10">
         <v>1</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="10">
         <v>16</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -822,31 +831,31 @@
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>16.4</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>23.1</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <v>19.8</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="10">
         <v>26</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="9">
         <v>2.3</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="9">
         <v>1.6</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="9">
         <v>2.8</v>
       </c>
-      <c r="I9" s="9">
-        <v>2</v>
-      </c>
-      <c r="J9" s="9">
+      <c r="I9" s="10">
+        <v>2</v>
+      </c>
+      <c r="J9" s="10">
         <v>16</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -857,31 +866,31 @@
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>18.1</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="10">
         <v>2104</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
         <v>19.8</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="10">
         <v>25</v>
       </c>
-      <c r="F10" s="9">
-        <v>2</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="9">
         <v>1.5</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="9">
         <v>2.5</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="9">
         <v>2.3</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="10">
         <v>15</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -892,31 +901,31 @@
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>19.1</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <v>20.2</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <v>19.7</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="10">
         <v>20</v>
       </c>
-      <c r="F11" s="9">
-        <v>2</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="F11" s="10">
+        <v>2</v>
+      </c>
+      <c r="G11" s="10">
         <v>1</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="10">
         <v>3</v>
       </c>
-      <c r="I11" s="9">
-        <v>2</v>
-      </c>
-      <c r="J11" s="9">
+      <c r="I11" s="10">
+        <v>2</v>
+      </c>
+      <c r="J11" s="10">
         <v>10</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -927,31 +936,31 @@
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="10">
         <v>16</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>22.6</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="9">
         <v>18.8</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="10">
         <v>24</v>
       </c>
-      <c r="F12" s="9">
-        <v>2</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="F12" s="10">
+        <v>2</v>
+      </c>
+      <c r="G12" s="9">
         <v>1.1</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="10">
         <v>3</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="9">
         <v>1.8</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="10">
         <v>12</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -962,31 +971,31 @@
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>16.2</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="9">
         <v>21.4</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <v>18.8</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="10">
         <v>24</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="9">
         <v>1.9</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="9">
         <v>1.1</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="9">
         <v>2.4</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="9">
         <v>1.5</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="10">
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -997,31 +1006,31 @@
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>9.5</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>16.1</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
         <v>12.8</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="10">
         <v>20</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="9">
         <v>2.6</v>
       </c>
-      <c r="G14" s="9">
-        <v>2</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="G14" s="10">
+        <v>2</v>
+      </c>
+      <c r="H14" s="9">
         <v>2.6</v>
       </c>
-      <c r="I14" s="9">
-        <v>2</v>
-      </c>
-      <c r="J14" s="9">
+      <c r="I14" s="10">
+        <v>2</v>
+      </c>
+      <c r="J14" s="10">
         <v>11</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -1032,18 +1041,18 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="10">
         <v>7</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="9">
         <v>4.8</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="4"/>
       <c r="K15" s="1"/>
     </row>
@@ -1051,46 +1060,46 @@
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>2.5</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>1.7</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="4"/>
       <c r="K16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
     </row>
@@ -1098,27 +1107,27 @@
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="8">
+      <c r="B19" s="7"/>
+      <c r="C19" s="9">
         <v>26.9</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="9">
+      <c r="D19" s="7"/>
+      <c r="E19" s="10">
         <v>21</v>
       </c>
-      <c r="F19" s="9">
-        <v>2</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F19" s="10">
+        <v>2</v>
+      </c>
+      <c r="G19" s="9">
         <v>1.1</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="9">
         <v>3.3</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="10">
         <v>1</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="10">
         <v>11</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -1129,27 +1138,27 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="9">
+      <c r="B20" s="7"/>
+      <c r="C20" s="10">
         <v>22</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="9">
+      <c r="D20" s="7"/>
+      <c r="E20" s="10">
         <v>22</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="9">
         <v>1.9</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="9">
         <v>1.1</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="10">
         <v>3</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="9">
         <v>1.5</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="10">
         <v>13</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -1160,27 +1169,27 @@
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="8">
+      <c r="B21" s="7"/>
+      <c r="C21" s="9">
         <v>21.8</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="9">
+      <c r="D21" s="7"/>
+      <c r="E21" s="10">
         <v>24</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="9">
         <v>2.1</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="9">
         <v>1.3</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="9">
         <v>2.5</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="9">
         <v>1.5</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="10">
         <v>13</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -1191,27 +1200,27 @@
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="8">
+      <c r="B22" s="7"/>
+      <c r="C22" s="9">
         <v>21.3</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="9">
+      <c r="D22" s="7"/>
+      <c r="E22" s="10">
         <v>25</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="9">
         <v>2.3</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="9">
         <v>1.9</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="9">
         <v>2.3</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="9">
         <v>1.6</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="10">
         <v>15</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -1222,27 +1231,27 @@
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="9">
+      <c r="B23" s="7"/>
+      <c r="C23" s="10">
         <v>21</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="9">
+      <c r="D23" s="7"/>
+      <c r="E23" s="10">
         <v>28</v>
       </c>
-      <c r="F23" s="9">
-        <v>2</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="F23" s="10">
+        <v>2</v>
+      </c>
+      <c r="G23" s="9">
         <v>1.4</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="10">
         <v>3</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="9">
         <v>1.3</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="10">
         <v>15</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -1253,27 +1262,27 @@
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="8">
+      <c r="B24" s="7"/>
+      <c r="C24" s="9">
         <v>20.6</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="9">
+      <c r="D24" s="7"/>
+      <c r="E24" s="10">
         <v>26</v>
       </c>
-      <c r="F24" s="9">
-        <v>2</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="F24" s="10">
+        <v>2</v>
+      </c>
+      <c r="G24" s="9">
         <v>1.8</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="9">
         <v>2.8</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="9">
         <v>1.3</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="10">
         <v>16</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -1284,27 +1293,27 @@
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="8">
+      <c r="B25" s="7"/>
+      <c r="C25" s="9">
         <v>20.5</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="9">
+      <c r="D25" s="7"/>
+      <c r="E25" s="10">
         <v>23</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="9">
         <v>2.1</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="9">
         <v>1.9</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="9">
         <v>3.5</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="10">
         <v>1</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="10">
         <v>11</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -1315,27 +1324,27 @@
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="8">
+      <c r="B26" s="7"/>
+      <c r="C26" s="9">
         <v>19.4</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="9">
+      <c r="D26" s="7"/>
+      <c r="E26" s="10">
         <v>26</v>
       </c>
-      <c r="F26" s="9">
-        <v>2</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="F26" s="10">
+        <v>2</v>
+      </c>
+      <c r="G26" s="9">
         <v>1.3</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="9">
         <v>0.8</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="9">
         <v>0.5</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="10">
         <v>12</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -1346,27 +1355,27 @@
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="8">
+      <c r="B27" s="7"/>
+      <c r="C27" s="9">
         <v>19.8</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="9">
+      <c r="D27" s="7"/>
+      <c r="E27" s="10">
         <v>24</v>
       </c>
-      <c r="F27" s="9">
-        <v>2</v>
-      </c>
-      <c r="G27" s="8">
+      <c r="F27" s="10">
+        <v>2</v>
+      </c>
+      <c r="G27" s="9">
         <v>1.1</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="9">
         <v>3.5</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="9">
         <v>1.5</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="10">
         <v>12</v>
       </c>
       <c r="K27" s="1" t="s">
@@ -1377,27 +1386,27 @@
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="8">
+      <c r="B28" s="7"/>
+      <c r="C28" s="9">
         <v>17.8</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="9">
+      <c r="D28" s="7"/>
+      <c r="E28" s="10">
         <v>25</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="9">
         <v>2.3</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="9">
         <v>1.6</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="9">
         <v>3.3</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="9">
         <v>1.8</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="10">
         <v>12</v>
       </c>
       <c r="K28" s="1" t="s">
@@ -1408,27 +1417,27 @@
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="8">
-        <v>17.8</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="9">
+      <c r="B29" s="7"/>
+      <c r="C29" s="9">
+        <v>17.6</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="10">
         <v>24</v>
       </c>
-      <c r="F29" s="9">
-        <v>2</v>
-      </c>
-      <c r="G29" s="8">
+      <c r="F29" s="10">
+        <v>2</v>
+      </c>
+      <c r="G29" s="9">
         <v>1.1</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="10">
         <v>4</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="9">
         <v>2.8</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="10">
         <v>13</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -1439,27 +1448,27 @@
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="8">
-        <v>17.6</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="9">
+      <c r="B30" s="7"/>
+      <c r="C30" s="9">
+        <v>17.2</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="10">
         <v>26</v>
       </c>
-      <c r="F30" s="9">
-        <v>2</v>
-      </c>
-      <c r="G30" s="9">
+      <c r="F30" s="10">
+        <v>2</v>
+      </c>
+      <c r="G30" s="10">
         <v>1</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="9">
         <v>3.8</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="9">
         <v>2.3</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="10">
         <v>16</v>
       </c>
       <c r="K30" s="1" t="s">
@@ -1470,27 +1479,27 @@
       <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="8">
-        <v>17.2</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="9">
+      <c r="B31" s="7"/>
+      <c r="C31" s="9">
+        <v>15.6</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="10">
         <v>22</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="9">
         <v>2.5</v>
       </c>
-      <c r="G31" s="9">
-        <v>2</v>
-      </c>
-      <c r="H31" s="8">
+      <c r="G31" s="10">
+        <v>2</v>
+      </c>
+      <c r="H31" s="9">
         <v>3.3</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="9">
         <v>1.6</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="10">
         <v>14</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -1501,16 +1510,16 @@
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="8">
-        <v>15.6</v>
-      </c>
-      <c r="D32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="D32" s="7"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="6"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
       <c r="J32" s="4"/>
       <c r="K32" s="1"/>
     </row>
@@ -1518,16 +1527,16 @@
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="8">
-        <v>5.7</v>
-      </c>
-      <c r="D33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="9">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="6"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
       <c r="J33" s="4"/>
       <c r="K33" s="1"/>
     </row>
